--- a/biology/Zoologie/Dalceridae/Dalceridae.xlsx
+++ b/biology/Zoologie/Dalceridae/Dalceridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dalceridae sont une famille de lépidoptères. Elle comporte environ 80 espèces[1], qui sont principalement présentes dans la région du néotropique, et dans une moindre mesure dans le néarctique. Elles sont généralement de taille petite ou moyenne et leur corps est très velu. Les larves ont un aspect de limaces, comme les larves des taxons frères Limacodidae et Megalopygidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dalceridae sont une famille de lépidoptères. Elle comporte environ 80 espèces, qui sont principalement présentes dans la région du néotropique, et dans une moindre mesure dans le néarctique. Elles sont généralement de taille petite ou moyenne et leur corps est très velu. Les larves ont un aspect de limaces, comme les larves des taxons frères Limacodidae et Megalopygidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (14 novembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (14 novembre 2018) :
 genre Acraga
 genre Acragopsis
 genre Anacraga
